--- a/medicine/Handicap/Blessé_de_guerre/Blessé_de_guerre.xlsx
+++ b/medicine/Handicap/Blessé_de_guerre/Blessé_de_guerre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bless%C3%A9_de_guerre</t>
+          <t>Blessé_de_guerre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Blessé de guerre, 6 mois de combat en Afghanistan est un livre écrit par Jocelyn Truchet en collaboration avec Bruno Pasdeloup.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bless%C3%A9_de_guerre</t>
+          <t>Blessé_de_guerre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">24 ans, Sergent au sein du 13e bataillon de chasseurs alpins de Chambéry, un jeune sous-officier français est envoyé en Afghanistan dans la province de Kapissa pour un mandat de 6 mois.
 Pendant les cinq premiers mois de l'année 2010, dans ce carnet de route, on découvre le quotidien de ces soldats engagés pour la France sur un sol hostile avec une tension permanente.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bless%C3%A9_de_guerre</t>
+          <t>Blessé_de_guerre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bande dessinée, concours Bulle de Mémoire 2017, organisé par l'ONAC, réalisée par deux élèves du collège Mendès-France[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bande dessinée, concours Bulle de Mémoire 2017, organisé par l'ONAC, réalisée par deux élèves du collège Mendès-France.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bless%C3%A9_de_guerre</t>
+          <t>Blessé_de_guerre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,11 +592,13 @@
           <t>Commentaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">« Jocelyn a choisi de rester chasseur alpin après sa blessure et de se lancer d’incroyables défis comma sa participation future aux jeux paralympiques d’hiver. Il a conservé intactes les vertus du soldat de montagne : l’opiniâtreté, l’humilité et le goût du dépassement. Son parcours de soldat était admirable, son itinéraire de ‘blessé de guerre’ l’est tout autant. ».
 Colonel Vincent Pons, ancien commandant du groupement tactique interarmes « Black Rock », Grenoble, 16 mars 2013 (préface).
-« Pour moi, pour tout ce qu'il a réussi à concentrer, un des meilleurs livres consacrés à la réalité de l'engagement français en Afghanistan (...). »[2].
+« Pour moi, pour tout ce qu'il a réussi à concentrer, un des meilleurs livres consacrés à la réalité de l'engagement français en Afghanistan (...). ».
 Jean-Marc Tanguy, journaliste, 9 janvier 2014
 </t>
         </is>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bless%C3%A9_de_guerre</t>
+          <t>Blessé_de_guerre</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,17 +628,19 @@
           <t>Revue de presse</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le Dauphiné, Cérémonie pour le sergent Truchet, blessé en Afghanistan [3]
-Le Dauphiné, Le nouveau combat du soldat blessé [4].
-INA, Portrait du sergent chef Jocelyn Truchet [5].
-Lignes de Défense, Jocelyn Truchet, quand un "blessé de guerre" raconte son Afghanistan [6].
-Sud Ouest, Témoignage d'Afghanistan[7].
-Le Dauphiné, Jocelyn Truchet, blessé de guerre [8].
-La Dépêche, Grièvement touché en Afghanistan, il témoigne : «La vie continue après la blessure» [9].
-Podcast Radio France : Collection Enquêtes : La deuxième vie des blessés de guerre [10].
-France Bleu, GRAND FORMAT - 9 septembre 2001 : le commandant Massoud assassiné à l'aide d'une caméra volée à Grenoble (fin de l'article) [11]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Dauphiné, Cérémonie pour le sergent Truchet, blessé en Afghanistan 
+Le Dauphiné, Le nouveau combat du soldat blessé .
+INA, Portrait du sergent chef Jocelyn Truchet .
+Lignes de Défense, Jocelyn Truchet, quand un "blessé de guerre" raconte son Afghanistan .
+Sud Ouest, Témoignage d'Afghanistan.
+Le Dauphiné, Jocelyn Truchet, blessé de guerre .
+La Dépêche, Grièvement touché en Afghanistan, il témoigne : «La vie continue après la blessure» .
+Podcast Radio France : Collection Enquêtes : La deuxième vie des blessés de guerre .
+France Bleu, GRAND FORMAT - 9 septembre 2001 : le commandant Massoud assassiné à l'aide d'une caméra volée à Grenoble (fin de l'article) </t>
         </is>
       </c>
     </row>
